--- a/data.xlsx
+++ b/data.xlsx
@@ -14,48 +14,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168" count="168">
   <x:si>
     <x:t>编号</x:t>
   </x:si>
   <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20001</x:t>
+    <x:t>社会团体名称</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务主管单位</x:t>
+  </x:si>
+  <x:si>
+    <x:t>类    别</x:t>
+  </x:si>
+  <x:si>
+    <x:t>联系人</x:t>
+  </x:si>
+  <x:si>
+    <x:t>联系电话</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-会员-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-会员-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-理事会及负责人-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-理事会及负责人-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-监事情况-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-监事情况-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-工作人员-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>基本信息-工作人员-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-会议及换届情况-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-会议及换届情况-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-财务核算-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-财务核算-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-执行会计制度-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-执行会计制度-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-机构设置情况-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-机构设置情况-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-党建工作情况-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部建设情况-党建工作情况-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>财务情况-净资产-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>财务情况-净资产-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>现职国家机关工作人员兼任社会团体职务情况-undefined-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>现职国家机关工作人员兼任社会团体职务情况-undefined-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>党政机关、国有企事业单位离退休领导干部兼任社会团体职务情况-undefined-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>党政机关、国有企事业单位离退休领导干部兼任社会团体职务情况-undefined-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-本年度业务活动总体情况和下年度工作计划-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-本年度业务活动总体情况和下年度工作计划-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-会费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-会费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-行政机关委托授权的事项-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-行政机关委托授权的事项-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-展览会、博览会、交易会-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-展览会、博览会、交易会-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-研讨会、论坛活动-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-研讨会、论坛活动-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-赛事、文艺评奖活动-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-赛事、文艺评奖活动-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-评比达标表彰活动-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-评比达标表彰活动-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-培训、职称评审、认证、鉴定等活动-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务活动情况-培训、职称评审、认证、鉴定等活动-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-基本信息-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-基本信息-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-在境外设立机构-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-在境外设立机构-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-对外交流合作项目-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-对外交流合作项目-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-参加国际组织-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涉外活动情况-参加国际组织-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受监督管理情况-年度检查/年度报告-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受监督管理情况-年度检查/年度报告-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受监督管理情况-行政处罚-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受监督管理情况-行政处罚-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受监督管理情况-业务主管单位初审意见-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受监督管理情况-业务主管单位初审意见-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-会费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-会费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-服务性收费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-服务性收费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-经营服务性收费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-经营服务性收费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-评比达标表彰收费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-评比达标表彰收费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-接受捐赠-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-接受捐赠-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-行政事业性收费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-行政事业性收费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-其他收费-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-其他收费-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-社会团体采取的规范收费、减轻企业负担涉及金额和规范情况-相对规范</x:t>
+  </x:si>
+  <x:si>
+    <x:t>收费情况自查自纠表-社会团体采取的规范收费、减轻企业负担涉及金额和规范情况-存在问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>主要问题</x:t>
+  </x:si>
+  <x:si>
+    <x:t>主要亮点</x:t>
+  </x:si>
+  <x:si>
+    <x:t>专家签名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>签名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>编号：20001</x:t>
   </x:si>
   <x:si>
     <x:t>组织1</x:t>
@@ -107,7 +311,260 @@
 或：监事数量为偶数X人，不符合规范，应为奇数。</x:t>
   </x:si>
   <x:si>
-    <x:t>20002</x:t>
+    <x:t>配有X个专职工作人员，签订劳动合同、购买社保。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>没有专职人员。
+或：有X专职工作人员未购买五险情况，原因为X。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>按章程要求定期召开相关会议，并按时换届。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未按章程要求召开相关会议（列出具体情况）/未按时换届
+年度内没有召开会员大会/理事会/常务理事会/监事会，没有相应会议纪要。
+或：未按时换届，该社团最近一次换届时间为X年X月，根据章程规定应于X年换届。未按时原因为X。
+或：年度内召开了2次理事会/常务理事会/监事会，但只有1份会议纪要/但没有会议纪要。
+或：年度内只召开1次理事会，召开次数低于规范要求。
+或：年度内只召开1次理事会，召开次数低于规范要求，且没有提供会议纪要。
+或：年度内只召开1次常务理事会，召开次数低于规范要求。
+或：年度内只召开1次常务理事会，召开次数低于规范要求，且没有提供会议纪要。
+或：年度内只召开1次监事会，召开次数低于规范要求。
+或：年度内只召开1次监事会，召开次数低于规范要求，且没有提供会议纪要。
+或：于同一天召开X次理事会/常务理事会/监事会。
+或：监事会与理事会未分别独立召开。
+或：监事成员没有列席理事会。
+或：会议纪要没有理事（监事）签字。
+或：会议纪要不规范，监事在理事处签名。
+或：会费标准的通过未通过会员大会</x:t>
+  </x:si>
+  <x:si>
+    <x:t>财务核算独立。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>财务未独立核算。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>执行《民间非营利组织会计制度》。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未执行《民间非营利组织会计制度》。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>机构设置合理。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经审批设立地域性分支代表机构。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>党组织健全，成立了XXX党组织，并按规定多次开展党建活动。
+或：未达到建立党组织的条件，尚未建立党组织。
+已将党的建设、社会主义核心价值观写入章程。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>专职人员中正式党员x名，符合成立党支部条件，但未按《中国共产党章程》及时成立党支部，需加强党的组织建设。
+或：已建立党组织，2019年未开展任何活动。
+或：未将坚持中国共产党的全面领导、党建工作要求、社会主义核心价值观等相关要求写入《章程》，在贯彻落实党的路线方针政策方面还有差距。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019年末净资产高于注册资金。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>年末净资产低于注册资金
+年末净资产低于3万，为X元，但年度内有开展活动。
+或：年末净资产低于3万，为X元，且年度内没有开展活动。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>无现职国家机关工作人员兼任社会团体职务情况。
+或：经审批，有现职国家机关工作人员在社会团体任职，为XX（列出具体名单），并未领取报酬。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经审批，有现职国家机关工作人员在社会团体任职，为XX,（列出具体名单），有/未领取报酬。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>无党政机关、国有企事业单位离退休领导干部兼任社会团体职务情况。
+或：经审批，有党政机关、国有企事业单位离退休领导干部在社会团体任职，为XX（列出具体名单），并未领取报酬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经审批，有党政机关、国有企事业单位离退休领导干部在社会团体任职，为XX,（列出具体名单），有/未领取报酬。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>按照章程规定，2019年度内有开展活动。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019年未开展或较少开展业务活动。
+或：2019年开展活动超出章程范围，如XX（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>按章程规定，不收取会费/制定或修改会费标准，经会员大会通过，标准设置符合规范。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未按章程规定制定或修改会费标准。
+或：未填写有关制定或修改会费标准的信息。
+或：会费标准的通过不符合规范，审议通过会费标准的会员大会中，会员出席率达不到三分之二。
+或：审议通过会费标准的会员大会中，赞同人数没有超过出席会员的二分之一。
+或：会费标准超过4档，不符合规范要求。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>经正式批准具有行政机关委托事项X项，包括XX（列出具体事项内容）。
+或：没有行政机关委托授权的事项。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经批准，有行政机关委托事项（列出具体事项内容）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>经批准，举办展览会、博览会、交易会X项，包括XX（列出具体展览会、博览会、交易会3项左右）。
+或：没有举办展览会、博览会、交易会。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经批准，举办展览会、博览会、交易会（列出具体展览会、博览会、交易会项目）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>经批准/内部程序，举办研讨会、论坛活动X项，包括XX（列出具体展览会、博览会、交易会3项左右）。
+或：没有举办研讨会、论坛活动。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经批准，举办研讨会、论坛活动（列出具体研讨会、论坛活动）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>经X批准，举办赛事、文艺评奖活动X项，包括XX（列出具体赛事、文艺评奖3项左右）。
+或：没有举办赛事、文艺评奖活动。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经批准，举办赛事、文艺评奖活动（列出具体赛事、文艺评奖项目）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>经批准（批准单位/文号），开展评比表彰活动X项，包括XX（列出具体表彰活动3项左右）。
+或：没有开展评比表彰活动。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经批准，开展评比表彰活动（列出具体表彰活动项目）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>经批准/内部程度，举办举办培训、职称评审、认证、鉴定等活动X项，包括XX。（列出具体3项左右）
+或：没有举办培训、职称评审、认证、鉴定等活动。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未经批准，举办举办培训、职称评审、认证、鉴定等活动（列出具体举办培训、职称评审、认证、鉴定等项目）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>外籍人员在本单位工作、本年度参加国际会议、本年度出国（境）情况、举办外文网站、举办外文刊物情况。
+或：未有对外工作情况。
+存在X人为港澳台及外籍人员在本单位工作。
+或：主办/承办国际会议X次。
+或：组织或者参与出访团组X个，共计X人次出访。
+或：举办外文网站X个；举办外文刊物X个。
+（如无）2019年没有涉外基本情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在异常，体现在X（具体情形描述如未经批准，本年度参加国际会议。）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在境外（国家名称）设立X机构，工作对象和内容为X。
+（如无）没有境外设立机构情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在境外设立X机构，可能存在异常，工作对象和内容为X。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>开展对外交流项目X个，为（项目名称）。
+（如无）没有对外交流项目。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在异常，体现在X（具体情形描述）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参加国际组织（名称），担任X职务。
+（如无）没有参加国际组织情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>连续3年年检合格。
+或：连续2年年检合格。
+或：2018年年检合格。
+或：尚未成立。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曾于X年年检结论为基本合格。
+或：曾于X年年检结论为不合格。
+或：XX年未参加年检。
+或：存在未按规范整改的情况（列出具体情况）
+或：存在未按规范整改的情况，并未完成整改。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>未接受过行政处罚。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>接受行政处罚（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务主管单位初审意见为正常。
+或：该社会团体没有业务主管单位。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>业务主管单位初审意见为,XX（列出具体存在问题的初审意见）。
+或：业务主管单位没有出具初审意见。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>依据章程规定的业务范围合理制定会费，不存在会费层次过多、会费票据使用不规范、强制入会并以此为目的收取会费或违规整改等情况。/不收取会费。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在未按章程规定的业务范围制定会费/会费层次过多/会费票据使用不规范/强制入会并以此为目的收取会费/违规整改情况（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在强制会员接受服务并收取费用、利用政府名义或政府委托事项为由擅自设立收费项目、违规整改等情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在强制会员接受服务并收取费用/利用政府名义或政府委托事项为由擅自设立收费项目/违规整改情况（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在超出章程范围的经营服务性收费项目。
+或：按章程规定，举办了X项经营服务性收费，经营服务性收费总额为X元，包括XX。（列举具体情况）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在超出章程范围的经营服务性收费项目。（列出具体情况）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在强制会员参加评比达标表彰活动、违规整改等情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在强制会员参加评比达标表彰活动/违规整改情况（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在强制会员捐赠、违规整改等情况。
+或：捐赠均捐签订赠合同，且捐赠票据使用合规。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在强制会员捐赠/捐赠没有签订捐赠合同/捐赠票据使用不合规/违规整改情况（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在利用政府名义或政府委托事项为由擅自设立收费项目、提高收费标准，违规整改等情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在利用政府名义或政府委托事项为由擅自设立收费项目、提高收费标准/违规整改情况（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在强制收费、违规整改情况。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在强制收费/违规整改情况（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不存在纠正违规行为。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>存在纠正违规行为，涉及金额X元（列出具体情况）。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>（汇总提炼上述“存在问题”）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>（汇总提炼上述“相对规范”）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>监测评价机构盖章：                  法人签名：                  经办人签名：                        联系电话：</x:t>
+  </x:si>
+  <x:si>
+    <x:t>编号：20002</x:t>
   </x:si>
   <x:si>
     <x:t>组织2</x:t>
@@ -123,6 +580,13 @@
   </x:si>
   <x:si>
     <x:t>理事数量少于7人，不符合规范。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>按章程要求定期召开相关会议，并按时换届。
+测试换行</x:t>
+  </x:si>
+  <x:si>
+    <x:t>党组织健全，成立了XXX党组织，并按规定多次开展党建活动。</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -485,7 +949,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:13">
+    <x:row r="1" spans="1:81">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -525,87 +989,693 @@
       <x:c r="M1" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="Q1" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="S1" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="V1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="W1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="X1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Y1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Z1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AA1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AB1" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AC1" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AD1" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AE1" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AF1" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AG1" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AH1" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AI1" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AJ1" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="AK1" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AL1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="AM1" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="AN1" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="AO1" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AP1" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="AQ1" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AR1" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="AS1" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="AT1" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AU1" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="AV1" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AW1" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AX1" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="AY1" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AZ1" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="BA1" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="BB1" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="BC1" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="BD1" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="BE1" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="BF1" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="BG1" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="BH1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="BI1" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="BJ1" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="BK1" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="BL1" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="BM1" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BN1" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="BO1" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BP1" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BQ1" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="BR1" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="BS1" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="BT1" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="BU1" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="BV1" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="BW1" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BX1" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="BY1" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="BZ1" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="CA1" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="CB1" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="CC1" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:13">
+    <x:row r="2" spans="1:81">
       <x:c r="A2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="U2" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="V2" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="W2" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="X2" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="Y2" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="Z2" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AA2" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AB2" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AC2" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AD2" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="AE2" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="AF2" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="AG2" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="AH2" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="AI2" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="AJ2" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="AK2" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL2" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="AM2" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="AN2" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AO2" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="AP2" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="AQ2" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="AR2" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="AS2" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AT2" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="AU2" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="AV2" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AW2" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AX2" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AY2" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AZ2" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="BA2" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="BB2" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="BC2" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="BD2" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="BE2" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="BF2" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="BG2" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="BH2" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="BI2" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="BJ2" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="BK2" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="BL2" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="BM2" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="BN2" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="BO2" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="BP2" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="BQ2" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="BR2" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="BS2" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="BT2" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="BU2" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="BV2" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="BW2" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="BX2" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="BY2" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="BZ2" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="CA2" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="CC2" s="0" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:13">
+    <x:row r="3" spans="1:81">
       <x:c r="A3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="U3" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="V3" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="W3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="X3" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="Y3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="Z3" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="AA3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AB3" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="AC3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AD3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AE3" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="AF3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AG3" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="AH3" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="AI3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AJ3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AK3" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AL3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AM3" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="AN3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AO3" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="AP3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AQ3" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="AR3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AS3" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AT3" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="AU3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AV3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="AW3" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AX3" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="AY3" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="AZ3" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="BA3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BB3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BC3" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="BD3" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="BE3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BF3" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="BG3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BH3" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="BI3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BJ3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BK3" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="BL3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BM3" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="BN3" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="BO3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BP3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BQ3" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="BR3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BS3" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="BT3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BU3" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="BV3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BW3" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="BX3" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="BY3" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="BZ3" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="CA3" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="CC3" s="0" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -561,6 +561,9 @@
     <x:t>（汇总提炼上述“相对规范”）</x:t>
   </x:si>
   <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
     <x:t>监测评价机构盖章：                  法人签名：                  经办人签名：                        联系电话：</x:t>
   </x:si>
   <x:si>
@@ -571,9 +574,6 @@
   </x:si>
   <x:si>
     <x:t>单位2</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t>该组织为一般性社团，会员总数未达到规定要求，仅有个人会员*个，单位会员*个。（会员数不能少于50）</x:t>
@@ -1432,19 +1432,22 @@
       <x:c r="CA2" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
+      <x:c r="CB2" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
       <x:c r="CC2" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:81">
       <x:c r="A3" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>84</x:v>
@@ -1459,13 +1462,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>165</x:v>
@@ -1474,28 +1477,28 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U3" s="0" t="s">
         <x:v>101</x:v>
@@ -1504,34 +1507,34 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="W3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="X3" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="Y3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z3" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="AA3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AB3" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="AC3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AD3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AE3" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="AF3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AG3" s="0" t="s">
         <x:v>113</x:v>
@@ -1540,34 +1543,34 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="AI3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AJ3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AK3" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="AL3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AM3" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="AN3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AO3" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="AP3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AQ3" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="AR3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AS3" s="0" t="s">
         <x:v>125</x:v>
@@ -1576,10 +1579,10 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="AU3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AV3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AW3" s="0" t="s">
         <x:v>129</x:v>
@@ -1594,10 +1597,10 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="BA3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BB3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BC3" s="0" t="s">
         <x:v>133</x:v>
@@ -1606,28 +1609,28 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="BE3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BF3" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="BG3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BH3" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="BI3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BJ3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BK3" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
       <x:c r="BL3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BM3" s="0" t="s">
         <x:v>144</x:v>
@@ -1636,34 +1639,34 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="BO3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BP3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BQ3" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="BR3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BS3" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="BT3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BU3" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="BV3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BW3" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
       <x:c r="BX3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="BY3" s="0" t="s">
         <x:v>156</x:v>
@@ -1674,8 +1677,11 @@
       <x:c r="CA3" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
+      <x:c r="CB3" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
       <x:c r="CC3" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
